--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetTable TennisEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetTable TennisEmptyMarketsList.xlsx
@@ -12,30 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>3744021  This game has no available Markets</t>
+    <t>3751309  This game has no available Markets</t>
   </si>
   <si>
-    <t>3744025  This game has no available Markets</t>
+    <t>3749336  This game has no available Markets</t>
   </si>
   <si>
-    <t>3744037  This game has no available Markets</t>
+    <t>3749352  This game has no available Markets</t>
   </si>
   <si>
-    <t>3745092  This game has no available Markets</t>
+    <t>3749485  This game has no available Markets</t>
   </si>
   <si>
-    <t>3741142  This game has no available Markets</t>
+    <t>3749495  This game has no available Markets</t>
   </si>
   <si>
-    <t>3741167  This game has no available Markets</t>
+    <t>3750347  This game has no available Markets</t>
   </si>
   <si>
-    <t>3744561  This game has no available Markets</t>
+    <t>3749327  This game has no available Markets</t>
   </si>
   <si>
-    <t>3744565  This game has no available Markets</t>
+    <t>3749329  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3749335  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3748754  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3749000  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3749002  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3749014  This game has no available Markets</t>
   </si>
 </sst>
 </file>
@@ -80,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,6 +144,31 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
